--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf7-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,6 +89,12 @@
   </si>
   <si>
     <t>Fgfr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.7983691175227</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H2">
-        <v>15.7983691175227</v>
+        <v>54.960962</v>
       </c>
       <c r="I2">
-        <v>0.9364622253110366</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J2">
-        <v>0.9364622253110366</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.57603935464424</v>
+        <v>0.493831</v>
       </c>
       <c r="N2">
-        <v>3.57603935464424</v>
+        <v>1.481493</v>
       </c>
       <c r="O2">
-        <v>0.9613015310420293</v>
+        <v>0.1121895146192186</v>
       </c>
       <c r="P2">
-        <v>0.9613015310420293</v>
+        <v>0.1134277760249069</v>
       </c>
       <c r="Q2">
-        <v>56.49558970345737</v>
+        <v>9.047142275140667</v>
       </c>
       <c r="R2">
-        <v>56.49558970345737</v>
+        <v>81.42428047626601</v>
       </c>
       <c r="S2">
-        <v>0.9002225709545253</v>
+        <v>0.1053895277698126</v>
       </c>
       <c r="T2">
-        <v>0.9002225709545253</v>
+        <v>0.108560932015516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +587,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.7983691175227</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H3">
-        <v>15.7983691175227</v>
+        <v>54.960962</v>
       </c>
       <c r="I3">
-        <v>0.9364622253110366</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J3">
-        <v>0.9364622253110366</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.143958210290348</v>
+        <v>3.763360333333333</v>
       </c>
       <c r="N3">
-        <v>0.143958210290348</v>
+        <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.03869846895797077</v>
+        <v>0.85496773012202</v>
       </c>
       <c r="P3">
-        <v>0.03869846895797077</v>
+        <v>0.8644042050627692</v>
       </c>
       <c r="Q3">
-        <v>2.274304943664872</v>
+        <v>68.94596809088023</v>
       </c>
       <c r="R3">
-        <v>2.274304943664872</v>
+        <v>620.5137128179221</v>
       </c>
       <c r="S3">
-        <v>0.03623965435651138</v>
+        <v>0.8031467614581602</v>
       </c>
       <c r="T3">
-        <v>0.03623965435651138</v>
+        <v>0.8273152258503209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.07189931458136</v>
+        <v>18.32032066666667</v>
       </c>
       <c r="H4">
-        <v>1.07189931458136</v>
+        <v>54.960962</v>
       </c>
       <c r="I4">
-        <v>0.06353777468896343</v>
+        <v>0.9393883922888365</v>
       </c>
       <c r="J4">
-        <v>0.06353777468896343</v>
+        <v>0.9570930138987986</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.57603935464424</v>
+        <v>0.0004073333333333333</v>
       </c>
       <c r="N4">
-        <v>3.57603935464424</v>
+        <v>0.001222</v>
       </c>
       <c r="O4">
-        <v>0.9613015310420293</v>
+        <v>9.253880164447964E-05</v>
       </c>
       <c r="P4">
-        <v>0.9613015310420293</v>
+        <v>9.356017362379453E-05</v>
       </c>
       <c r="Q4">
-        <v>3.83315413315913</v>
+        <v>0.007462477284888889</v>
       </c>
       <c r="R4">
-        <v>3.83315413315913</v>
+        <v>0.067162295564</v>
       </c>
       <c r="S4">
-        <v>0.06107896008750405</v>
+        <v>8.692987610114327E-05</v>
       </c>
       <c r="T4">
-        <v>0.06107896008750405</v>
+        <v>8.95457885544924E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>18.32032066666667</v>
+      </c>
+      <c r="H5">
+        <v>54.960962</v>
+      </c>
+      <c r="I5">
+        <v>0.9393883922888365</v>
+      </c>
+      <c r="J5">
+        <v>0.9570930138987986</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.1441585</v>
+      </c>
+      <c r="N5">
+        <v>0.288317</v>
+      </c>
+      <c r="O5">
+        <v>0.03275021645711715</v>
+      </c>
+      <c r="P5">
+        <v>0.02207445873870014</v>
+      </c>
+      <c r="Q5">
+        <v>2.641029946825667</v>
+      </c>
+      <c r="R5">
+        <v>15.846179680954</v>
+      </c>
+      <c r="S5">
+        <v>0.03076517318476267</v>
+      </c>
+      <c r="T5">
+        <v>0.02112731024440719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H6">
+        <v>0.299359</v>
+      </c>
+      <c r="I6">
+        <v>0.005116620224500324</v>
+      </c>
+      <c r="J6">
+        <v>0.005213052994737072</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.493831</v>
+      </c>
+      <c r="N6">
+        <v>1.481493</v>
+      </c>
+      <c r="O6">
+        <v>0.1121895146192186</v>
+      </c>
+      <c r="P6">
+        <v>0.1134277760249069</v>
+      </c>
+      <c r="Q6">
+        <v>0.04927758477633332</v>
+      </c>
+      <c r="R6">
+        <v>0.443498262987</v>
+      </c>
+      <c r="S6">
+        <v>0.0005740311394775684</v>
+      </c>
+      <c r="T6">
+        <v>0.0005913050074930068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H7">
+        <v>0.299359</v>
+      </c>
+      <c r="I7">
+        <v>0.005116620224500324</v>
+      </c>
+      <c r="J7">
+        <v>0.005213052994737072</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.763360333333333</v>
+      </c>
+      <c r="N7">
+        <v>11.290081</v>
+      </c>
+      <c r="O7">
+        <v>0.85496773012202</v>
+      </c>
+      <c r="P7">
+        <v>0.8644042050627692</v>
+      </c>
+      <c r="Q7">
+        <v>0.3755319286754444</v>
+      </c>
+      <c r="R7">
+        <v>3.379787358079</v>
+      </c>
+      <c r="S7">
+        <v>0.004374545179237462</v>
+      </c>
+      <c r="T7">
+        <v>0.004506184929865788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H8">
+        <v>0.299359</v>
+      </c>
+      <c r="I8">
+        <v>0.005116620224500324</v>
+      </c>
+      <c r="J8">
+        <v>0.005213052994737072</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0004073333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.001222</v>
+      </c>
+      <c r="O8">
+        <v>9.253880164447964E-05</v>
+      </c>
+      <c r="P8">
+        <v>9.356017362379453E-05</v>
+      </c>
+      <c r="Q8">
+        <v>4.064629977777777E-05</v>
+      </c>
+      <c r="R8">
+        <v>0.000365816698</v>
+      </c>
+      <c r="S8">
+        <v>4.734859040451684E-07</v>
+      </c>
+      <c r="T8">
+        <v>4.877341432976425E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.09978633333333332</v>
+      </c>
+      <c r="H9">
+        <v>0.299359</v>
+      </c>
+      <c r="I9">
+        <v>0.005116620224500324</v>
+      </c>
+      <c r="J9">
+        <v>0.005213052994737072</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1441585</v>
+      </c>
+      <c r="N9">
+        <v>0.288317</v>
+      </c>
+      <c r="O9">
+        <v>0.03275021645711715</v>
+      </c>
+      <c r="P9">
+        <v>0.02207445873870014</v>
+      </c>
+      <c r="Q9">
+        <v>0.01438504813383333</v>
+      </c>
+      <c r="R9">
+        <v>0.086310288803</v>
+      </c>
+      <c r="S9">
+        <v>0.000167570419881249</v>
+      </c>
+      <c r="T9">
+        <v>0.0001150753232349807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.07189931458136</v>
-      </c>
-      <c r="H5">
-        <v>1.07189931458136</v>
-      </c>
-      <c r="I5">
-        <v>0.06353777468896343</v>
-      </c>
-      <c r="J5">
-        <v>0.06353777468896343</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.143958210290348</v>
-      </c>
-      <c r="N5">
-        <v>0.143958210290348</v>
-      </c>
-      <c r="O5">
-        <v>0.03869846895797077</v>
-      </c>
-      <c r="P5">
-        <v>0.03869846895797077</v>
-      </c>
-      <c r="Q5">
-        <v>0.1543087069385833</v>
-      </c>
-      <c r="R5">
-        <v>0.1543087069385833</v>
-      </c>
-      <c r="S5">
-        <v>0.002458814601459392</v>
-      </c>
-      <c r="T5">
-        <v>0.002458814601459392</v>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.082285</v>
+      </c>
+      <c r="H10">
+        <v>2.16457</v>
+      </c>
+      <c r="I10">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J10">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.493831</v>
+      </c>
+      <c r="N10">
+        <v>1.481493</v>
+      </c>
+      <c r="O10">
+        <v>0.1121895146192186</v>
+      </c>
+      <c r="P10">
+        <v>0.1134277760249069</v>
+      </c>
+      <c r="Q10">
+        <v>0.5344658838349999</v>
+      </c>
+      <c r="R10">
+        <v>3.20679530301</v>
+      </c>
+      <c r="S10">
+        <v>0.006225955709928349</v>
+      </c>
+      <c r="T10">
+        <v>0.004275539001897848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.082285</v>
+      </c>
+      <c r="H11">
+        <v>2.16457</v>
+      </c>
+      <c r="I11">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J11">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.763360333333333</v>
+      </c>
+      <c r="N11">
+        <v>11.290081</v>
+      </c>
+      <c r="O11">
+        <v>0.85496773012202</v>
+      </c>
+      <c r="P11">
+        <v>0.8644042050627692</v>
+      </c>
+      <c r="Q11">
+        <v>4.073028438361667</v>
+      </c>
+      <c r="R11">
+        <v>24.43817063017</v>
+      </c>
+      <c r="S11">
+        <v>0.04744642348462232</v>
+      </c>
+      <c r="T11">
+        <v>0.03258279428258241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.082285</v>
+      </c>
+      <c r="H12">
+        <v>2.16457</v>
+      </c>
+      <c r="I12">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J12">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.0004073333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.001222</v>
+      </c>
+      <c r="O12">
+        <v>9.253880164447964E-05</v>
+      </c>
+      <c r="P12">
+        <v>9.356017362379453E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.0004408507566666666</v>
+      </c>
+      <c r="R12">
+        <v>0.00264510454</v>
+      </c>
+      <c r="S12">
+        <v>5.135439639291203E-06</v>
+      </c>
+      <c r="T12">
+        <v>3.52665092600449E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.082285</v>
+      </c>
+      <c r="H13">
+        <v>2.16457</v>
+      </c>
+      <c r="I13">
+        <v>0.05549498748666317</v>
+      </c>
+      <c r="J13">
+        <v>0.03769393310646423</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1441585</v>
+      </c>
+      <c r="N13">
+        <v>0.288317</v>
+      </c>
+      <c r="O13">
+        <v>0.03275021645711715</v>
+      </c>
+      <c r="P13">
+        <v>0.02207445873870014</v>
+      </c>
+      <c r="Q13">
+        <v>0.1560205821725</v>
+      </c>
+      <c r="R13">
+        <v>0.6240823286899999</v>
+      </c>
+      <c r="S13">
+        <v>0.001817472852473226</v>
+      </c>
+      <c r="T13">
+        <v>0.0008320731710579678</v>
       </c>
     </row>
   </sheetData>
